--- a/HW1/validation_accuracy.xlsx
+++ b/HW1/validation_accuracy.xlsx
@@ -442,7 +442,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>44.53125</v>
+        <v>48.4375</v>
       </c>
     </row>
   </sheetData>
